--- a/medicine/Mort/Décès_en_2016/Décès_en_2016.xlsx
+++ b/medicine/Mort/Décès_en_2016/Décès_en_2016.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2016</t>
+          <t>Décès_en_2016</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2016</t>
+          <t>Décès_en_2016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier : Vilmos Zsigmond, chef opérateur du Nouvel Hollywood.
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier : Vilmos Zsigmond, chef opérateur du Nouvel Hollywood.
 2 janvier : Michel Delpech, chanteur français.
 3 janvier : Paul Bley, pianiste canadien de jazz.
 4 janvier : Michel Galabru, acteur français.
@@ -559,9 +576,43 @@
 28 janvier : Paul Kantner, guitariste et cofondateur du groupe rock Jefferson Airplane, et Signe Anderson, première chanteuse du même groupe.
 29 janvier : Jacques Rivette, réalisateur français.
 30 janvier : Frank Finlay, acteur britannique.
-31 janvier : Benoît Violier, chef cuisinier franco-suisse.
-Février
-2 février : Éric Kristy, romancier et scénariste.
+31 janvier : Benoît Violier, chef cuisinier franco-suisse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 février : Éric Kristy, romancier et scénariste.
 3 février : Maurice White, chanteur américain du groupe Earth, Wind and Fire.
 4 février : Edgar Mitchell, astronaute américain.
 5 février : Tayeb Saddiki, écrivain et metteur en scène marocain.
@@ -576,9 +627,43 @@
 Harper Lee, romancière américaine.
 24 février: Paul Racine, fonctionnaire français et écrivains.
 25 février : François Dupeyron, écrivain et réalisateur français.
-28 février : George Kennedy, acteur et écrivain américain.
-Mars
-2 mars : Chandra Ranaraja, femme politique srilankaise.
+28 février : George Kennedy, acteur et écrivain américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 mars : Chandra Ranaraja, femme politique srilankaise.
 3 mars : Yves Guéna, homme politique français.
 4 mars : Patrick Floersheim, acteur français.
 5 mars : Nikolaus Harnoncourt, chef d'orchestre autrichien.
@@ -597,9 +682,43 @@
 29 mars : Jean-Pierre Coffe, critique culinaire, animateur radio et écrivain français.
 31 mars :
 Imre Kertész, écrivain hongrois ;
-Hans-Dietrich Genscher, homme d'État allemand.
-Avril
-7 avril : Marcel Dubé, dramaturge québécois.
+Hans-Dietrich Genscher, homme d'État allemand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>7 avril : Marcel Dubé, dramaturge québécois.
 12 avril : Maurice Favières, animateur de radio et présentateur de télévision.
 16 avril : Estelle Balet, snowboardeuse suisse.
 19 avril : Ronit Elkabetz, actrice et réalisatrice israélienne
@@ -608,9 +727,43 @@
 24 avril : Billy Paul, chanteur américain de soul.
 25 avril : Martin Gray, écrivain franco-américain.
 28 avril : René Hausman, illustrateur belge.
-30 avril : Dang Jittakorn, chanteur pop de Luk thung thaïlandaise.
-Mai
-2 mai : Hubert Mounier, dit Cleet Boris, musicien français, chanteur et auteur de bande dessinée.
+30 avril : Dang Jittakorn, chanteur pop de Luk thung thaïlandaise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 mai : Hubert Mounier, dit Cleet Boris, musicien français, chanteur et auteur de bande dessinée.
 5 mai : Maurice Sinet, dit Siné, dessinateur et caricaturiste français.
 8 mai : Philippe Beaussant, musicologue français.
 12 mai : Susannah Mushatt Jones, doyenne de l'humanité.
@@ -620,9 +773,43 @@
 22 mai : Bata Živojinović, acteur serbe.
 27 mai : Jean-Claude Decaux, industriel français.
 29 mai : André Rousselet, chef d'entreprise français.
-31 mai : Emmanuel Maubert, animateur et chroniqueur français.
-Juin
-3 juin : Mohamed Ali, boxeur américain.
+31 mai : Emmanuel Maubert, animateur et chroniqueur français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 juin : Mohamed Ali, boxeur américain.
 8 juin : Stephen Keshi, footballeur nigérian.
 10 juin :
 Gordie Howe, joueur de hockey canadien ;
@@ -636,9 +823,43 @@
 25 juin :
 Giuseppe Ferrara, réalisateur et scénariste italien ;
 Nicole Courcel, actrice française.
-27 juin : Bud Spencer, acteur italien.
-Juillet
-1er juillet : Yves Bonnefoy, écrivain français.
+27 juin : Bud Spencer, acteur italien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juillet : Yves Bonnefoy, écrivain français.
 2 juillet :
 Michael Cimino, réalisateur et scénariste américain ;
 Michel Rocard, ancien Premier ministre français ;
@@ -648,9 +869,43 @@
 19 juillet : Laurence Pollet-Villard, actrice française.
 20 juillet : André Isoir, organiste français.
 23 juillet : Marceau Long, haut fonctionnaire français.
-28 juillet : Martine Meirhaeghe, actrice française de doublage
-Août
-13 août :
+28 juillet : Martine Meirhaeghe, actrice française de doublage</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>13 août :
 Kenny Baker, acteur britannique ;
 Françoise Mallet-Joris, femme de lettres belge et française ;
 Georges Séguy, syndicaliste français.
@@ -665,9 +920,43 @@
 29 août : Gene Wilder, réalisateur, acteur et scénariste américain.
 30 août : Marc Riboud, photographe français.
 Asia Ramazan Antar, membre des Unités de protection de la femme, combattante lors de la guerre civile syrienne
-31 août : Oqtay Zulfugarov, chef d'orchestre, violoncelliste et enseignant azerbaïdjanais.
-Septembre
-2 septembre :
+31 août : Oqtay Zulfugarov, chef d'orchestre, violoncelliste et enseignant azerbaïdjanais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 septembre :
 Islam Karimov, président de la République d'Ouzbékistan ;
 Jon Polito, acteur américain.
 4 septembre : Bob Bissonnette, chanteur et hockeyeur Québécois.
@@ -695,9 +984,43 @@
 28 septembre : Shimon Peres, homme d'État israélien.
 30 septembre :
 Bernard Faure, « Monsieur Zygo », comédien et animateur de télévision français.
-Jihad Qassab, joueur de football syrien.
-Octobre
-2 octobre : Neville Marriner, chef d'orchestre britannique.
+Jihad Qassab, joueur de football syrien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 octobre : Neville Marriner, chef d'orchestre britannique.
 8 octobre : Pierre Tchernia, réalisateur et animateur français.
 9 octobre :
 Anthony Grant, homme politique britannique.
@@ -706,9 +1029,43 @@
 Dario Fo, écrivain, dramaturge, metteur en scène et acteur italien ;
 Rama IX, roi de Thaïlande de 1946 à 2016.
 14 octobre : Pierre Étaix, réalisateur, acteur, clown, dessinateur, affichiste et dramaturge français.
-21 octobre : Clément Michu, acteur français.
-Novembre
-7 novembre : Leonard Cohen, musicien et poète canadien.
+21 octobre : Clément Michu, acteur français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>7 novembre : Leonard Cohen, musicien et poète canadien.
 8 novembre : Raoul Coutard, réalisateur et directeur de la photographie.
 11 novembre : Robert Vaughn, acteur américain.
 13 novembre : Leon Russell, auteur-compositeur-interprète, pianiste et guitariste américain.
@@ -720,9 +1077,43 @@
 20 novembre : Paul Tourenne, chanteur français.
 23 novembre : Rita Barberá, femme politique espagnole.
 25 novembre : David Hamilton, photographe britannique.
-25 novembre : Fidel Castro, homme d'État cubain.
-Décembre
-1er décembre : Ousmane Sow, sculpteur sénégalais.
+25 novembre : Fidel Castro, homme d'État cubain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_2016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2016</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er décembre : Ousmane Sow, sculpteur sénégalais.
 3 décembre : Rémy Pflimlin, dirigeant d'entreprise français.
 4 décembre : Marcel Gotlib, auteur de bande dessinée.
 7 décembre: Greg Lake, musicien britannique membre du groupe Emerson Lake and Palmer.
@@ -731,7 +1122,7 @@
 18 décembre :
 Zsa Zsa Gábor, actrice américaine ;
 Léo Marjane, actrice et chanteuse française.
-19 décembre : Philippe Becquelin (Mix et Remix), dessinateur de presse suisse[1].
+19 décembre : Philippe Becquelin (Mix et Remix), dessinateur de presse suisse.
 20 décembre : Michèle Morgan, actrice française.
 23 décembre : Vesna Vulović, hôtesse de l'air, détentrice du record du monde de la plus haute chute libre sans parachute à laquelle un être humain ait survécu.
 24 décembre : Rick Parfitt, guitariste anglais du groupe Status Quo.
